--- a/report/model.xlsx
+++ b/report/model.xlsx
@@ -1,35 +1,455 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\timeline-scrapper\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A7EEAE-EA98-4263-9142-ABE552205E90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Extrato de Banco de horas" state="visible" r:id="rId3"/>
+    <sheet name="Extrato do Banco de Horas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="100">
+  <si>
+    <t>Extrato do Banco de Horas</t>
+  </si>
+  <si>
+    <t>01/Oct/2018 - 31/Oct/2018</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Saída</t>
+  </si>
+  <si>
+    <t>Saldo</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>do dia</t>
+  </si>
+  <si>
+    <t>do período</t>
+  </si>
+  <si>
+    <t>do mês</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>{{begin}}</t>
+  </si>
+  <si>
+    <t>12:01</t>
+  </si>
+  <si>
+    <t>12:41</t>
+  </si>
+  <si>
+    <t>{{end}}</t>
+  </si>
+  <si>
+    <t>Resumo:</t>
+  </si>
+  <si>
+    <t>+ 00:49</t>
+  </si>
+  <si>
+    <t>+ 71:32</t>
+  </si>
+  <si>
+    <t>12:05</t>
+  </si>
+  <si>
+    <t>12:55</t>
+  </si>
+  <si>
+    <t>+ 04:06</t>
+  </si>
+  <si>
+    <t>+ 04:55</t>
+  </si>
+  <si>
+    <t>+ 75:38</t>
+  </si>
+  <si>
+    <t>11:03</t>
+  </si>
+  <si>
+    <t>11:19</t>
+  </si>
+  <si>
+    <t>- 02:56</t>
+  </si>
+  <si>
+    <t>+ 01:59</t>
+  </si>
+  <si>
+    <t>+ 72:42</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>+ 00:08</t>
+  </si>
+  <si>
+    <t>+ 02:07</t>
+  </si>
+  <si>
+    <t>+ 72:50</t>
+  </si>
+  <si>
+    <t>+ 00:11</t>
+  </si>
+  <si>
+    <t>+ 02:18</t>
+  </si>
+  <si>
+    <t>+ 73:01</t>
+  </si>
+  <si>
+    <t>12:09</t>
+  </si>
+  <si>
+    <t>12:36</t>
+  </si>
+  <si>
+    <t>+ 01:20</t>
+  </si>
+  <si>
+    <t>+ 03:38</t>
+  </si>
+  <si>
+    <t>+ 74:21</t>
+  </si>
+  <si>
+    <t>+ 04:58</t>
+  </si>
+  <si>
+    <t>+ 75:41</t>
+  </si>
+  <si>
+    <t>12:10</t>
+  </si>
+  <si>
+    <t>- 02:59</t>
+  </si>
+  <si>
+    <t>+ 01:44</t>
+  </si>
+  <si>
+    <t>+ 03:43</t>
+  </si>
+  <si>
+    <t>+ 74:26</t>
+  </si>
+  <si>
+    <t>12:06</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>+ 04:14</t>
+  </si>
+  <si>
+    <t>+ 07:57</t>
+  </si>
+  <si>
+    <t>+ 78:40</t>
+  </si>
+  <si>
+    <t>12:25</t>
+  </si>
+  <si>
+    <t>13:14</t>
+  </si>
+  <si>
+    <t>+ 08:05</t>
+  </si>
+  <si>
+    <t>+ 78:48</t>
+  </si>
+  <si>
+    <t>11:57</t>
+  </si>
+  <si>
+    <t>12:40</t>
+  </si>
+  <si>
+    <t>+ 04:47</t>
+  </si>
+  <si>
+    <t>+ 06:52</t>
+  </si>
+  <si>
+    <t>+ 77:35</t>
+  </si>
+  <si>
+    <t>+ 00:27</t>
+  </si>
+  <si>
+    <t>+ 07:19</t>
+  </si>
+  <si>
+    <t>+ 78:02</t>
+  </si>
+  <si>
+    <t>12:12</t>
+  </si>
+  <si>
+    <t>13:01</t>
+  </si>
+  <si>
+    <t>+ 00:33</t>
+  </si>
+  <si>
+    <t>+ 07:52</t>
+  </si>
+  <si>
+    <t>+ 78:35</t>
+  </si>
+  <si>
+    <t>12:18</t>
+  </si>
+  <si>
+    <t>12:50</t>
+  </si>
+  <si>
+    <t>+ 01:24</t>
+  </si>
+  <si>
+    <t>+ 09:16</t>
+  </si>
+  <si>
+    <t>+ 79:59</t>
+  </si>
+  <si>
+    <t>12:08</t>
+  </si>
+  <si>
+    <t>- 03:13</t>
+  </si>
+  <si>
+    <t>+ 06:03</t>
+  </si>
+  <si>
+    <t>+ 76:46</t>
+  </si>
+  <si>
+    <t>12:44</t>
+  </si>
+  <si>
+    <t>+ 00:46</t>
+  </si>
+  <si>
+    <t>+ 06:49</t>
+  </si>
+  <si>
+    <t>+ 77:32</t>
+  </si>
+  <si>
+    <t>12:58</t>
+  </si>
+  <si>
+    <t>+ 01:28</t>
+  </si>
+  <si>
+    <t>+ 08:17</t>
+  </si>
+  <si>
+    <t>+ 79:00</t>
+  </si>
+  <si>
+    <t>+ 02:39</t>
+  </si>
+  <si>
+    <t>+ 10:56</t>
+  </si>
+  <si>
+    <t>+ 81:39</t>
+  </si>
+  <si>
+    <t>13:06</t>
+  </si>
+  <si>
+    <t>+ 01:23</t>
+  </si>
+  <si>
+    <t>+ 12:19</t>
+  </si>
+  <si>
+    <t>+ 83:02</t>
+  </si>
+  <si>
+    <t>12:15</t>
+  </si>
+  <si>
+    <t>+ 09:23</t>
+  </si>
+  <si>
+    <t>+ 80:06</t>
+  </si>
+  <si>
+    <t>{{time|get:begin}}</t>
+  </si>
+  <si>
+    <t>{{time|get:date}}</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF969696"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF969696"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <fgColor rgb="FF969696"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF969696"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8F0C8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAC8C8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -37,18 +457,272 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -205,16 +879,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -336,56 +1014,1628 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N97"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
+    <col min="3" max="10" width="12.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.7265625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="50.7265625" style="1" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="2:14" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="2:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="16"/>
+    </row>
+    <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="24"/>
+      <c r="C9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="25"/>
+      <c r="C10" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="2:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="22"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="24"/>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="2:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="2:14" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="24"/>
+      <c r="C17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="25"/>
+      <c r="C18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="24"/>
+      <c r="C21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="24"/>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="11"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="24"/>
+      <c r="C29" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="25"/>
+      <c r="C30" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="11"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="14"/>
+    </row>
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="24"/>
+      <c r="C33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="25"/>
+      <c r="C34" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="14"/>
+    </row>
+    <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="24"/>
+      <c r="C37" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="25"/>
+      <c r="C38" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="24"/>
+      <c r="C41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="25"/>
+      <c r="C42" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="29"/>
+      <c r="C45" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="14"/>
+    </row>
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="24"/>
+      <c r="C48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="25"/>
+      <c r="C49" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="26"/>
+      <c r="E49" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="14"/>
+    </row>
+    <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="24"/>
+      <c r="C52" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="25"/>
+      <c r="C53" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="26"/>
+      <c r="E53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="14"/>
+    </row>
+    <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+    </row>
+    <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="29"/>
+      <c r="C56" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="14"/>
+    </row>
+    <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="24"/>
+      <c r="C59" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="25"/>
+      <c r="C60" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="26"/>
+      <c r="E60" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="11"/>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="14"/>
+    </row>
+    <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="24"/>
+      <c r="C63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="25"/>
+      <c r="C64" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="14"/>
+    </row>
+    <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="24"/>
+      <c r="C67" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="25"/>
+      <c r="C68" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I68" s="11"/>
+      <c r="J68" s="12"/>
+    </row>
+    <row r="69" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="8"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="14"/>
+    </row>
+    <row r="70" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="24"/>
+      <c r="C71" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="25"/>
+      <c r="C72" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="26"/>
+      <c r="E72" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I72" s="11"/>
+      <c r="J72" s="12"/>
+    </row>
+    <row r="73" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="8"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="14"/>
+    </row>
+    <row r="74" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="24"/>
+      <c r="C75" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="25"/>
+      <c r="C76" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="26"/>
+      <c r="E76" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I76" s="11"/>
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="8"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="14"/>
+    </row>
+    <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="24"/>
+      <c r="C79" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="25"/>
+      <c r="C80" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="26"/>
+      <c r="E80" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I80" s="11"/>
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="8"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="14"/>
+    </row>
+    <row r="82" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="24"/>
+      <c r="C83" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="25"/>
+      <c r="C84" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="26"/>
+      <c r="E84" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I84" s="11"/>
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="8"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="14"/>
+    </row>
+    <row r="86" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="24"/>
+      <c r="C87" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="25"/>
+      <c r="C88" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="26"/>
+      <c r="E88" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="I88" s="11"/>
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="8"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="14"/>
+    </row>
+    <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="24"/>
+      <c r="C91" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="25"/>
+      <c r="C92" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="26"/>
+      <c r="E92" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I92" s="11"/>
+      <c r="J92" s="12"/>
+    </row>
+    <row r="93" spans="2:10" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="8"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="14"/>
+    </row>
+    <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="24"/>
+      <c r="C95" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D95" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="2:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="25"/>
+      <c r="C96" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="26"/>
+      <c r="E96" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I96" s="11"/>
+      <c r="J96" s="12"/>
+    </row>
+    <row r="97" spans="2:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="8"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="55">
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="B94:B96"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.78" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>